--- a/_checkpoint1203.xlsx
+++ b/_checkpoint1203.xlsx
@@ -3707,7 +3707,7 @@
     <t>https://shillamarket.com/collections/paste-sauce/products/cj-sagyejeol-ssamjang-500g</t>
   </si>
   <si>
-    <t>https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=1800</t>
+    <t>https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=900</t>
   </si>
   <si>
     <t>Seasoned Soybean Paste [Ssamjjang] 500G</t>
@@ -3782,7 +3782,7 @@
     <t>https://shillamarket.com/collections/paste-sauce/products/sempio-jin-ganjang-s-860ml</t>
   </si>
   <si>
-    <t>https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1800</t>
+    <t>https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900</t>
   </si>
   <si>
     <t>Jin S Soy Sauce 860ML</t>
@@ -33676,10 +33676,10 @@
   <sheetPr/>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B95" sqref="B95"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -39497,14 +39497,14 @@
     <hyperlink ref="B16" r:id="rId28" display="https://shillamarket.com/cdn/shop/files/Sauce_SoySauce_CB01400.png?v=1723123731&amp;width=900"/>
     <hyperlink ref="B15" r:id="rId29" display="https://shillamarket.com/cdn/shop/files/BeefBulgogiMarinade290G_ac00aefa-b4d6-48be-8ac8-1c39cd320558.jpg?v=1725635201&amp;width=900"/>
     <hyperlink ref="B14" r:id="rId30" display="https://shillamarket.com/cdn/shop/files/SoySauceforSoup860ML.png?v=1728476774&amp;width=900"/>
-    <hyperlink ref="B13" r:id="rId31" display="https://shillamarket.com/cdn/shop/files/Sauce_SoupBase_LC62041.png?v=1723123852&amp;width=900"/>
+    <hyperlink ref="B13" r:id="rId31" display="https://shillamarket.com/cdn/shop/files/Sauce_SoupBase_LC62041.png?v=1723123852&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/Sauce_SoupBase_LC62041.png?v=1723123852&amp;width=900"/>
     <hyperlink ref="B11" r:id="rId32" display="https://shillamarket.com/cdn/shop/files/Paste_Soybean_0368.png?v=1723123527&amp;width=900"/>
     <hyperlink ref="B10" r:id="rId33" display="https://shillamarket.com/cdn/shop/files/RedPepperPaste_Gochujang_500G.jpg?v=1728478557&amp;width=900"/>
     <hyperlink ref="B9" r:id="rId34" display="https://shillamarket.com/cdn/shop/files/Sauce_SoupBase_LC62013.png?v=1723123850&amp;width=900"/>
     <hyperlink ref="B8" r:id="rId35" display="https://shillamarket.com/cdn/shop/files/DriedProducts_RedPepperPowder_RP001.png?v=1723123659&amp;width=900"/>
     <hyperlink ref="B7" r:id="rId36" display="https://shillamarket.com/cdn/shop/files/SoybeanPaste500G_6adfe1c3-41a6-4355-bdf3-45823898514f.jpg?v=1725636680&amp;width=900"/>
     <hyperlink ref="B6" r:id="rId37" display="https://shillamarket.com/cdn/shop/files/RedPepperPaste_Gochujang_1KG_fbdab8f5-2a47-4c8d-a799-f9e385a4199a.jpg?v=1728478724&amp;width=900"/>
-    <hyperlink ref="B4" r:id="rId38" display="https://shillamarket.com/cdn/shop/files/CJW-HETSAL-DAMEUN-GUK-GANJANG-500ml.png?v=1723123519&amp;width=900"/>
+    <hyperlink ref="B4" r:id="rId38" display="https://shillamarket.com/cdn/shop/files/CJW-HETSAL-DAMEUN-GUK-GANJANG-500ml.png?v=1723123519&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/CJW-HETSAL-DAMEUN-GUK-GANJANG-500ml.png?v=1723123519&amp;width=900"/>
     <hyperlink ref="B3" r:id="rId39" display="https://shillamarket.com/cdn/shop/files/Sauce_SoySauce_2133.png?v=1723123607&amp;width=900"/>
     <hyperlink ref="B2" r:id="rId40" display="https://shillamarket.com/cdn/shop/files/DaesangO_FoodRedPepperPaste500G.webp?v=1726585562&amp;width=900"/>
     <hyperlink ref="A38" r:id="rId41" display="https://shillamarket.com/collections/paste-sauce/products/cj-maekom-dweji-bulgogi-yangnyeom-290g"/>
@@ -39830,8 +39830,8 @@
     <hyperlink ref="A5" r:id="rId361" display="https://shillamarket.com/collections/paste-sauce/products/cj-sagyejeol-ssamjang-500g"/>
     <hyperlink ref="A12" r:id="rId362" display="https://shillamarket.com/collections/paste-sauce/products/sempio-jin-ganjang-s-860ml"/>
     <hyperlink ref="A149" r:id="rId363" display="https://shillamarket.com/collections/paste-sauce/products/seasoned-soybean-paste-for-bbq-200g"/>
-    <hyperlink ref="B12" r:id="rId364" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1800" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1800"/>
-    <hyperlink ref="B5" r:id="rId365" display="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=1800" tooltip="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=1800"/>
+    <hyperlink ref="B12" r:id="rId364" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900"/>
+    <hyperlink ref="B5" r:id="rId365" display="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=900"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/_checkpoint1203.xlsx
+++ b/_checkpoint1203.xlsx
@@ -3707,7 +3707,7 @@
     <t>https://shillamarket.com/collections/paste-sauce/products/cj-sagyejeol-ssamjang-500g</t>
   </si>
   <si>
-    <t>https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=900</t>
+    <t>https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.png?v=1725636579&amp;width=900</t>
   </si>
   <si>
     <t>Seasoned Soybean Paste [Ssamjjang] 500G</t>
@@ -33679,7 +33679,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -39501,7 +39501,7 @@
     <hyperlink ref="B11" r:id="rId32" display="https://shillamarket.com/cdn/shop/files/Paste_Soybean_0368.png?v=1723123527&amp;width=900"/>
     <hyperlink ref="B10" r:id="rId33" display="https://shillamarket.com/cdn/shop/files/RedPepperPaste_Gochujang_500G.jpg?v=1728478557&amp;width=900"/>
     <hyperlink ref="B9" r:id="rId34" display="https://shillamarket.com/cdn/shop/files/Sauce_SoupBase_LC62013.png?v=1723123850&amp;width=900"/>
-    <hyperlink ref="B8" r:id="rId35" display="https://shillamarket.com/cdn/shop/files/DriedProducts_RedPepperPowder_RP001.png?v=1723123659&amp;width=900"/>
+    <hyperlink ref="B8" r:id="rId35" display="https://shillamarket.com/cdn/shop/files/DriedProducts_RedPepperPowder_RP001.png?v=1723123659&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/DriedProducts_RedPepperPowder_RP001.png?v=1723123659&amp;width=900"/>
     <hyperlink ref="B7" r:id="rId36" display="https://shillamarket.com/cdn/shop/files/SoybeanPaste500G_6adfe1c3-41a6-4355-bdf3-45823898514f.jpg?v=1725636680&amp;width=900"/>
     <hyperlink ref="B6" r:id="rId37" display="https://shillamarket.com/cdn/shop/files/RedPepperPaste_Gochujang_1KG_fbdab8f5-2a47-4c8d-a799-f9e385a4199a.jpg?v=1728478724&amp;width=900"/>
     <hyperlink ref="B4" r:id="rId38" display="https://shillamarket.com/cdn/shop/files/CJW-HETSAL-DAMEUN-GUK-GANJANG-500ml.png?v=1723123519&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/CJW-HETSAL-DAMEUN-GUK-GANJANG-500ml.png?v=1723123519&amp;width=900"/>
@@ -39831,7 +39831,7 @@
     <hyperlink ref="A12" r:id="rId362" display="https://shillamarket.com/collections/paste-sauce/products/sempio-jin-ganjang-s-860ml"/>
     <hyperlink ref="A149" r:id="rId363" display="https://shillamarket.com/collections/paste-sauce/products/seasoned-soybean-paste-for-bbq-200g"/>
     <hyperlink ref="B12" r:id="rId364" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900"/>
-    <hyperlink ref="B5" r:id="rId365" display="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=900"/>
+    <hyperlink ref="B5" r:id="rId365" display="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.png?v=1725636579&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.png?v=1725636579&amp;width=900"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/_checkpoint1203.xlsx
+++ b/_checkpoint1203.xlsx
@@ -3707,7 +3707,7 @@
     <t>https://shillamarket.com/collections/paste-sauce/products/cj-sagyejeol-ssamjang-500g</t>
   </si>
   <si>
-    <t>https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.png?v=1725636579&amp;width=900</t>
+    <t>https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1080</t>
   </si>
   <si>
     <t>Seasoned Soybean Paste [Ssamjjang] 500G</t>
@@ -39831,7 +39831,7 @@
     <hyperlink ref="A12" r:id="rId362" display="https://shillamarket.com/collections/paste-sauce/products/sempio-jin-ganjang-s-860ml"/>
     <hyperlink ref="A149" r:id="rId363" display="https://shillamarket.com/collections/paste-sauce/products/seasoned-soybean-paste-for-bbq-200g"/>
     <hyperlink ref="B12" r:id="rId364" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900"/>
-    <hyperlink ref="B5" r:id="rId365" display="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.png?v=1725636579&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.png?v=1725636579&amp;width=900"/>
+    <hyperlink ref="B5" r:id="rId365" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1080" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1080"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/_checkpoint1203.xlsx
+++ b/_checkpoint1203.xlsx
@@ -33679,7 +33679,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -33830,7 +33830,7 @@
       <c r="A5" s="8" t="s">
         <v>1219</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>1220</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -39831,7 +39831,6 @@
     <hyperlink ref="A12" r:id="rId362" display="https://shillamarket.com/collections/paste-sauce/products/sempio-jin-ganjang-s-860ml"/>
     <hyperlink ref="A149" r:id="rId363" display="https://shillamarket.com/collections/paste-sauce/products/seasoned-soybean-paste-for-bbq-200g"/>
     <hyperlink ref="B12" r:id="rId364" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900"/>
-    <hyperlink ref="B5" r:id="rId365" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1080" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1080"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/_checkpoint1203.xlsx
+++ b/_checkpoint1203.xlsx
@@ -3707,7 +3707,7 @@
     <t>https://shillamarket.com/collections/paste-sauce/products/cj-sagyejeol-ssamjang-500g</t>
   </si>
   <si>
-    <t>https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=1080</t>
+    <t>https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=1080</t>
   </si>
   <si>
     <t>Seasoned Soybean Paste [Ssamjjang] 500G</t>
@@ -33679,7 +33679,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -33757,7 +33757,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I11" si="0">IF(ISNUMBER(SEARCH("Sale",H2)),"Sale: "&amp;TEXT(1-G2/F2,"0%")&amp;" OFF","")</f>
+        <f>IF(ISNUMBER(SEARCH("Sale",H2)),"Sale: "&amp;TEXT(1-G2/F2,"0%")&amp;" OFF","")</f>
         <v/>
       </c>
       <c r="K2" s="4" t="s">
@@ -33788,7 +33788,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Sale",H3)),"Sale: "&amp;TEXT(1-G3/F3,"0%")&amp;" OFF","")</f>
         <v/>
       </c>
       <c r="K3" s="4" t="s">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Sale",H4)),"Sale: "&amp;TEXT(1-G4/F4,"0%")&amp;" OFF","")</f>
         <v/>
       </c>
       <c r="K4" s="4" t="s">
@@ -33849,10 +33849,6 @@
         <v>3.75</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="K5" s="4" t="s">
         <v>1211</v>
       </c>
@@ -33881,7 +33877,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I6:I11" si="0">IF(ISNUMBER(SEARCH("Sale",H6)),"Sale: "&amp;TEXT(1-G6/F6,"0%")&amp;" OFF","")</f>
         <v/>
       </c>
       <c r="K6" s="4" t="s">
@@ -39827,10 +39823,9 @@
     <hyperlink ref="A184" r:id="rId358" display="https://shillamarket.com/collections/paste-sauce/products/yamasa-genen-shoyu-150ml"/>
     <hyperlink ref="A45" r:id="rId359" display="https://shillamarket.com/collections/paste-sauce/products/otafuku-yakisoba-sauce-500g"/>
     <hyperlink ref="A145" r:id="rId360" display="https://shillamarket.com/collections/paste-sauce/products/hikari-nama-shio-koji-no-hama-350g"/>
-    <hyperlink ref="A5" r:id="rId361" display="https://shillamarket.com/collections/paste-sauce/products/cj-sagyejeol-ssamjang-500g"/>
-    <hyperlink ref="A12" r:id="rId362" display="https://shillamarket.com/collections/paste-sauce/products/sempio-jin-ganjang-s-860ml"/>
-    <hyperlink ref="A149" r:id="rId363" display="https://shillamarket.com/collections/paste-sauce/products/seasoned-soybean-paste-for-bbq-200g"/>
-    <hyperlink ref="B12" r:id="rId364" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900"/>
+    <hyperlink ref="A12" r:id="rId361" display="https://shillamarket.com/collections/paste-sauce/products/sempio-jin-ganjang-s-860ml"/>
+    <hyperlink ref="A149" r:id="rId362" display="https://shillamarket.com/collections/paste-sauce/products/seasoned-soybean-paste-for-bbq-200g"/>
+    <hyperlink ref="B12" r:id="rId363" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/_checkpoint1203.xlsx
+++ b/_checkpoint1203.xlsx
@@ -3707,7 +3707,7 @@
     <t>https://shillamarket.com/collections/paste-sauce/products/cj-sagyejeol-ssamjang-500g</t>
   </si>
   <si>
-    <t>https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=1080</t>
+    <t>https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=900</t>
   </si>
   <si>
     <t>Seasoned Soybean Paste [Ssamjjang] 500G</t>
@@ -7790,7 +7790,7 @@
     <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7835,6 +7835,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -8322,13 +8328,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8337,115 +8340,118 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8478,7 +8484,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8486,13 +8492,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -39827,7 +39833,6 @@
     <hyperlink ref="A12" r:id="rId361" display="https://shillamarket.com/collections/paste-sauce/products/sempio-jin-ganjang-s-860ml"/>
     <hyperlink ref="A149" r:id="rId362" display="https://shillamarket.com/collections/paste-sauce/products/seasoned-soybean-paste-for-bbq-200g"/>
     <hyperlink ref="B12" r:id="rId363" display="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900" tooltip="https://shillamarket.com/cdn/shop/files/JinSSoySauce860ML.jpg?v=1728477154&amp;width=900"/>
-    <hyperlink ref="B5" r:id="rId364" display="https://shillamarket.com/cdn/shop/files/SeasonedSoybeanPaste_Ssamjjang_500G.jpg?v=1725636579&amp;width=1080"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/_checkpoint1203.xlsx
+++ b/_checkpoint1203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8055" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="18352" windowHeight="8055" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A_Ramen&amp;Noodle" sheetId="1" r:id="rId1"/>
@@ -26411,10 +26411,10 @@
   <sheetPr/>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B62" sqref="B62"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -33692,10 +33692,10 @@
   <sheetPr/>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B150" sqref="B150"/>
+      <selection pane="topRight" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -38320,7 +38320,7 @@
       <c r="A149" s="8" t="s">
         <v>1684</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>1685</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -38351,7 +38351,7 @@
       <c r="A150" s="8" t="s">
         <v>1687</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>1688</v>
       </c>
       <c r="C150" s="1" t="s">

--- a/_checkpoint1203.xlsx
+++ b/_checkpoint1203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8055"/>
+    <workbookView windowWidth="18352" windowHeight="8055" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="A_Ramen&amp;Noodle" sheetId="1" r:id="rId1"/>
@@ -8411,7 +8411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8871,7 +8871,7 @@
   <sheetPr/>
   <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="J2" sqref="J2:J1048576"/>
@@ -8888,8 +8888,7 @@
     <col min="9" max="9" width="15.8672566371681" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6548672566372" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.33628318584071" style="27" customWidth="1"/>
-    <col min="12" max="12" width="20.9203539823009" customWidth="1"/>
-    <col min="13" max="18" width="20.9203539823009" customWidth="1"/>
+    <col min="12" max="18" width="20.9203539823009" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:18">
@@ -14382,8 +14381,7 @@
     <col min="9" max="9" width="15.8672566371681" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6548672566372" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.33628318584071" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.9203539823009" customWidth="1"/>
-    <col min="13" max="13" width="20.9203539823009" customWidth="1"/>
+    <col min="12" max="13" width="20.9203539823009" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -17463,8 +17461,7 @@
     <col min="9" max="9" width="15.8672566371681" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6548672566372" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.33628318584071" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.9203539823009" customWidth="1"/>
-    <col min="13" max="13" width="20.9203539823009" customWidth="1"/>
+    <col min="12" max="13" width="20.9203539823009" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -22303,7 +22300,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J2" sqref="J2:J1048576 J2:J1048576"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -22317,8 +22314,7 @@
     <col min="9" max="9" width="15.8672566371681" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6548672566372" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.33628318584071" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.9203539823009" customWidth="1"/>
-    <col min="13" max="13" width="20.9203539823009" customWidth="1"/>
+    <col min="12" max="13" width="20.9203539823009" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -29034,8 +29030,7 @@
     <col min="9" max="9" width="15.8672566371681" customWidth="1"/>
     <col min="10" max="10" width="15.6548672566372" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.33628318584071" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.9203539823009" customWidth="1"/>
-    <col min="13" max="13" width="20.9203539823009" customWidth="1"/>
+    <col min="12" max="13" width="20.9203539823009" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:13">
@@ -33204,8 +33199,7 @@
     <col min="9" max="9" width="15.8672566371681" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6548672566372" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.33628318584071" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.9203539823009" customWidth="1"/>
-    <col min="13" max="13" width="20.9203539823009" customWidth="1"/>
+    <col min="12" max="13" width="20.9203539823009" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -34831,10 +34825,10 @@
   <sheetPr/>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -34848,8 +34842,7 @@
     <col min="9" max="9" width="15.8672566371681" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6548672566372" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.33628318584071" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.9203539823009" customWidth="1"/>
-    <col min="13" max="13" width="20.9203539823009" customWidth="1"/>
+    <col min="12" max="13" width="20.9203539823009" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
